--- a/server/uploads/coupon_List.xlsx
+++ b/server/uploads/coupon_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayele\Desktop\ItzhakAWS\server\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271C5B2-D766-4B57-BEE7-550E4E1748C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0F1DF-9CD3-4AFE-81A1-D4D2313B7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Coupon Code</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>yyyy</t>
+  </si>
+  <si>
+    <t>GHI7fhdd9</t>
+  </si>
+  <si>
+    <t>GHI7ssss9</t>
+  </si>
+  <si>
+    <t>GHI78eeee</t>
   </si>
 </sst>
 </file>
@@ -395,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -485,6 +494,39 @@
         <v>45962</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/server/uploads/coupon_List.xlsx
+++ b/server/uploads/coupon_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayele\Desktop\ItzhakAWS\server\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0F1DF-9CD3-4AFE-81A1-D4D2313B7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A0F11-9D1B-4910-9A5C-EDB5F0ABBD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -123,6 +123,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +416,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,90 +438,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="7">
         <v>46022</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="5">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="7">
         <v>45945</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="5">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="7">
         <v>45962</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="5">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="7">
         <v>45962</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="5">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="7">
         <v>45962</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45962</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>45963</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>45964</v>
       </c>
     </row>
